--- a/biology/Botanique/Les_Vignerons_de_la_«_Côte_d'Or_»_au_XIXe_siècle/Les_Vignerons_de_la_«_Côte_d'Or_»_au_XIXe_siècle.xlsx
+++ b/biology/Botanique/Les_Vignerons_de_la_«_Côte_d'Or_»_au_XIXe_siècle/Les_Vignerons_de_la_«_Côte_d'Or_»_au_XIXe_siècle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Vignerons_de_la_%C2%AB_C%C3%B4te_d%27Or_%C2%BB_au_XIXe_si%C3%A8cle</t>
+          <t>Les_Vignerons_de_la_«_Côte_d'Or_»_au_XIXe_siècle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Vignerons de la « Côte d'Or » au XIXe siècle est un ouvrage de Robert Laurent, publié en 1957 (la couverture porte la date de 1958, car la première version était la thèse de doctorat de l'auteur). 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Vignerons_de_la_%C2%AB_C%C3%B4te_d%27Or_%C2%BB_au_XIXe_si%C3%A8cle</t>
+          <t>Les_Vignerons_de_la_«_Côte_d'Or_»_au_XIXe_siècle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Référence complète</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent, Robert, Les vignerons de la « Côte d'Or » au XIXe siècle, Société Les Belles Lettres, Publications de l'Université de Dijon, 1958. Deux volumes de 527 (lire en ligne sur Gallica) et 281 pages (lire en ligne sur Gallica). Illustration : 1 planche et 5 tableaux hors-texte,.
 Voir le compte-rendu du livre dans la revue anglaise, History, juin 1960, pp. 163–164.
